--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -545,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -855,6 +855,11 @@
       </c>
       <c r="Q9">
         <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -545,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -855,11 +855,6 @@
       </c>
       <c r="Q9">
         <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
